--- a/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.003222891822758428</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1075917950733241</v>
+        <v>0.107591795073324</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03063721574300425</v>
+        <v>-0.03507929306340998</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6124067252366144</v>
+        <v>-0.6170574050446642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2074496075861218</v>
+        <v>-0.213966642891529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1147968956085378</v>
+        <v>-0.1483511562138892</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.7396122507250628</v>
+        <v>-0.7098861305393268</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.01049534856827</v>
+        <v>-1.037194739068608</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1383666568895842</v>
+        <v>0.06568712533907621</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.435958678313636</v>
+        <v>-0.4769337501380315</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.4125496631080152</v>
+        <v>-0.3600647689968926</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.745034261728946</v>
+        <v>1.620335258348694</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3503878855474418</v>
+        <v>0.3507452121622598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.291103659416141</v>
+        <v>1.358791512202254</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.969287367001266</v>
+        <v>1.859877834914923</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7942553596570687</v>
+        <v>0.7829150011801298</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1511995831937</v>
+        <v>0.1810676782277023</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.452383747295504</v>
+        <v>1.384408518168128</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4769021518353652</v>
+        <v>0.4751198286268783</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5492673388607221</v>
+        <v>0.5759652342249962</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.01122214086273752</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3746356832275637</v>
+        <v>0.3746356832275635</v>
       </c>
     </row>
     <row r="8">
@@ -783,19 +783,15 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.7146473864900001</v>
+        <v>-0.8361874604182039</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.09869114044158386</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>-0.875572241300301</v>
-      </c>
+        <v>-0.1847131387549295</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -811,12 +807,10 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>14.02002365376609</v>
+        <v>13.07136619883874</v>
       </c>
       <c r="J9" s="6" t="inlineStr"/>
-      <c r="K9" s="6" t="n">
-        <v>6.08107817433448</v>
-      </c>
+      <c r="K9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -836,7 +830,7 @@
         <v>0.01159800788927095</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.07451854142131392</v>
+        <v>-0.07451854142131391</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1742928236284949</v>
@@ -854,7 +848,7 @@
         <v>-0.07385012172896872</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.09325976653946678</v>
+        <v>-0.0932597665394668</v>
       </c>
     </row>
     <row r="11">
@@ -865,31 +859,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1444851455305913</v>
+        <v>-0.1427719612667283</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2620566889793018</v>
+        <v>-0.3837087813643909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5381336674113179</v>
+        <v>-0.5926805896132907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4242453081707677</v>
+        <v>-0.4216268150975412</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7370538878260725</v>
+        <v>-0.725221679065043</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8396301846484155</v>
+        <v>-0.7388392923492606</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1819645928506715</v>
+        <v>-0.1721949779724461</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.426412369751045</v>
+        <v>-0.3912295415498649</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4400905044601652</v>
+        <v>-0.4435969031951959</v>
       </c>
     </row>
     <row r="12">
@@ -900,31 +894,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.243108540855699</v>
+        <v>1.257065828275215</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.427878692751031</v>
+        <v>0.4387969821771909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05713084307847739</v>
+        <v>0.1102579991902375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7780688872127796</v>
+        <v>0.75977294040795</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2709670926411888</v>
+        <v>0.2769322353186078</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2377457065296296</v>
+        <v>0.2415577293603385</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7313159910964112</v>
+        <v>0.6974632950375051</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.205068915990704</v>
+        <v>0.2176936196310224</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1261088218290445</v>
+        <v>0.1170906429724852</v>
       </c>
     </row>
     <row r="13">
@@ -950,7 +944,7 @@
         <v>-0.518895803808449</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3629443631157079</v>
+        <v>-0.362944363115708</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1.018600962139636</v>
@@ -972,16 +966,16 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.7839326816232358</v>
+        <v>-0.8032284978379973</v>
       </c>
       <c r="J14" s="6" t="inlineStr"/>
-      <c r="K14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="K14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -997,7 +991,7 @@
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>11.31724662412361</v>
+        <v>11.6129748256429</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="inlineStr"/>
@@ -1029,7 +1023,7 @@
         <v>-0.04337165765301489</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3625550323180954</v>
+        <v>0.3625550323180956</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.04193742452271729</v>
@@ -1049,31 +1043,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4332225533919162</v>
+        <v>-0.5822110419319297</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.07522433678072</v>
+        <v>-1.228212347462212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3201699844855244</v>
+        <v>-0.3430800696339423</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.359612536845222</v>
+        <v>-1.340706365392212</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8338123601107645</v>
+        <v>-0.8354594244205606</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4491343952747468</v>
+        <v>-0.4404206394890086</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6763867153745642</v>
+        <v>-0.611854231471658</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7943204569420249</v>
+        <v>-0.7532940361502036</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.1278667012357145</v>
+        <v>-0.1104321192295851</v>
       </c>
     </row>
     <row r="18">
@@ -1084,31 +1078,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.731844348679313</v>
+        <v>1.660565367791531</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.201107107947891</v>
+        <v>0.3684337548429406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.346730511434394</v>
+        <v>2.311652876855375</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.1362161698446411</v>
+        <v>-0.1369252855135561</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.897592324702135</v>
+        <v>0.894286114405243</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.230857212587215</v>
+        <v>1.235779723326227</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5267050718658095</v>
+        <v>0.6083173384934782</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.337698607560231</v>
+        <v>0.3747112499546186</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.423127230343762</v>
+        <v>1.444340435823023</v>
       </c>
     </row>
     <row r="19">
@@ -1134,7 +1128,7 @@
         <v>-0.0884147157416152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.739081738114482</v>
+        <v>0.7390817381144823</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.08240079226249775</v>
@@ -1153,24 +1147,24 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="n">
+        <v>-0.8035084259882107</v>
+      </c>
       <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="n">
-        <v>-0.7256237121593129</v>
-      </c>
+      <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.6150969813560022</v>
+        <v>-0.6212943594486698</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8610285763665315</v>
+        <v>-0.7959296160749105</v>
       </c>
       <c r="J20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.314075080981168</v>
+        <v>-0.3072116372316881</v>
       </c>
     </row>
     <row r="21">
@@ -1185,15 +1179,19 @@
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
       <c r="I21" s="6" t="n">
-        <v>2.515034321822756</v>
+        <v>3.260106335304867</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.482548764545387</v>
+        <v>3.210659335254869</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>5.187686694478399</v>
+        <v>6.780627498700864</v>
       </c>
     </row>
     <row r="22">
@@ -1232,7 +1230,7 @@
         <v>-0.6748610246011582</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.2590602403172844</v>
+        <v>-0.2590602403172845</v>
       </c>
     </row>
     <row r="23">
@@ -1243,31 +1241,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8813007011665352</v>
+        <v>-0.7821739354539604</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.008264389546211</v>
+        <v>-1.015664088185916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7784245769699869</v>
+        <v>-0.8928490474097557</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.110492032717294</v>
+        <v>-1.096252477786684</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.919272250578304</v>
+        <v>-1.90394063785276</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.344287669296883</v>
+        <v>-1.339284696387056</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6936969595902882</v>
+        <v>-0.679725124190369</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.269151325767905</v>
+        <v>-1.185756759483629</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8646341260950529</v>
+        <v>-0.8437237184538273</v>
       </c>
     </row>
     <row r="24">
@@ -1278,31 +1276,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.441873591461391</v>
+        <v>0.471704153120507</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1426669109694053</v>
+        <v>0.1397256632167675</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4108102171829933</v>
+        <v>0.3656677813747595</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.802139733734581</v>
+        <v>0.7662244495368149</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3762983455976971</v>
+        <v>-0.3739744821072144</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3255749298216379</v>
+        <v>0.3584474002649632</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4479707191082498</v>
+        <v>0.4447856599345766</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.2932245724282728</v>
+        <v>-0.2944091103685937</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1934190784025019</v>
+        <v>0.1841974180604452</v>
       </c>
     </row>
     <row r="25">
@@ -1319,7 +1317,7 @@
         <v>-0.7344933885484176</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2892244353174348</v>
+        <v>-0.2892244353174347</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.09789571334297546</v>
@@ -1337,7 +1335,7 @@
         <v>-0.9148381609889872</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3511807397342218</v>
+        <v>-0.3511807397342219</v>
       </c>
     </row>
     <row r="26">
@@ -1351,24 +1349,22 @@
         <v>-1</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="n">
-        <v>-0.9158302570519038</v>
-      </c>
+      <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.7142542949074578</v>
+        <v>-0.7529834910437337</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>-0.819945276352028</v>
+        <v>-0.8216447546461062</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6536516431087314</v>
+        <v>-0.6518432000826037</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7562012585583787</v>
+        <v>-0.7417968143547842</v>
       </c>
     </row>
     <row r="27">
@@ -1378,28 +1374,24 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>4.592405901218672</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="n">
-        <v>4.382295178219551</v>
-      </c>
+      <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>2.129840850940573</v>
+        <v>2.002013360794545</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>0.7814948928721505</v>
+        <v>1.15653934571051</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.187417713338467</v>
+        <v>1.182389821496351</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2191132905395292</v>
+        <v>-0.2165191685653561</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5487877118010203</v>
+        <v>0.5978674148261645</v>
       </c>
     </row>
     <row r="28">
@@ -1438,7 +1430,7 @@
         <v>-0.2644183245989359</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.03900068207914019</v>
+        <v>0.03900068207914027</v>
       </c>
     </row>
     <row r="29">
@@ -1449,31 +1441,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.08343592101599628</v>
+        <v>-0.08019760626395356</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4927415410211559</v>
+        <v>-0.4969809529834959</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.143403978332211</v>
+        <v>-0.1266275401074334</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3469020581619781</v>
+        <v>-0.3063599266187105</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6726262857558075</v>
+        <v>-0.6845321373723732</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4756915293236425</v>
+        <v>-0.4493904047029311</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1423315033681391</v>
+        <v>-0.1429812540850768</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.4942979254268134</v>
+        <v>-0.4911907255624646</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.1983174315590364</v>
+        <v>-0.2347789061099002</v>
       </c>
     </row>
     <row r="30">
@@ -1484,31 +1476,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6747078694499402</v>
+        <v>0.7499607937223819</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04761440455035026</v>
+        <v>0.07314716902340807</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6087945158488692</v>
+        <v>0.588797181275086</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4489081673900964</v>
+        <v>0.4928908303676646</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.00387460830746036</v>
+        <v>-0.02796050952988091</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2373059116726623</v>
+        <v>0.2462239726589194</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.432799692945291</v>
+        <v>0.4267855428284973</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.06201621182785765</v>
+        <v>-0.0625288408030665</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3068687381038012</v>
+        <v>0.288170832631189</v>
       </c>
     </row>
     <row r="31">
@@ -1543,7 +1535,7 @@
         <v>-0.5927684839199049</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.08743106296796785</v>
+        <v>0.08743106296796804</v>
       </c>
     </row>
     <row r="32">
@@ -1554,31 +1546,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2893823098423451</v>
+        <v>-0.2432897139428386</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8865805301017365</v>
+        <v>-0.9256577587186315</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3625976108768867</v>
+        <v>-0.336278926143717</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4556343208898327</v>
+        <v>-0.45345639970356</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8866267224849027</v>
+        <v>-0.8978226172042334</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6017479073069435</v>
+        <v>-0.5727738848830384</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.266855264715868</v>
+        <v>-0.2641977588705644</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8357270931066075</v>
+        <v>-0.8391236630127883</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3783605563735641</v>
+        <v>-0.4011898018456539</v>
       </c>
     </row>
     <row r="33">
@@ -1589,31 +1581,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.346920358458853</v>
+        <v>3.689046815297753</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5352597129988697</v>
+        <v>0.4807126132330873</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.984525551034757</v>
+        <v>3.188322129919086</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.441177982416564</v>
+        <v>1.557700095669017</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1347764851416482</v>
+        <v>0.1285280787066059</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7538657691451374</v>
+        <v>0.7624337172513496</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.254076753650419</v>
+        <v>1.347340940801841</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1283190978228514</v>
+        <v>-0.1284182898492494</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.000320648768763</v>
+        <v>0.9158431325593914</v>
       </c>
     </row>
     <row r="34">
